--- a/Examples/ANP_BOCR_NationalMissileDefensetest/BOCR formula sythesize.xlsx
+++ b/Examples/ANP_BOCR_NationalMissileDefensetest/BOCR formula sythesize.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shared/GITHUB/AhpAnpLib/Examples/ANP_BOCR_NationalMissileDefensetest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0A254F-A56E-5E46-9A3B-104AA8BD89C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4136A21-6AA7-7449-9C3B-2EFBD7E6247C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16700" xr2:uid="{21AB8312-23CA-334C-9EDB-F4A6F10C98E2}"/>
   </bookViews>
@@ -236,9 +236,6 @@
     <t>nR</t>
   </si>
   <si>
-    <t>B-O-C-R Syhthesize</t>
-  </si>
-  <si>
     <t>Vectors of Priorities for B-O-C-R</t>
   </si>
   <si>
@@ -366,6 +363,9 @@
   </si>
   <si>
     <t>and For Multiplication formula, using raw and ideal we got the same values.</t>
+  </si>
+  <si>
+    <t>B-O-C-R Synthesize</t>
   </si>
 </sst>
 </file>
@@ -523,46 +523,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
@@ -887,8 +881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80E07369-A4D5-F141-AAA4-057BBB96A35A}">
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93:Q98"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -898,15 +892,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="L2" t="s">
@@ -1108,10 +1102,10 @@
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1143,7 +1137,7 @@
       <c r="F10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="7" t="s">
         <v>26</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -1161,25 +1155,25 @@
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7">
+      <c r="B11" s="6">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
         <v>0.92753600000000003</v>
       </c>
       <c r="D11">
-        <f>B11*B$10</f>
+        <f t="shared" ref="D11:E14" si="0">B11*B$10</f>
         <v>0.54194341379994804</v>
       </c>
       <c r="E11">
-        <f>C11*C$10</f>
+        <f t="shared" si="0"/>
         <v>0.42486397373765133</v>
       </c>
       <c r="F11">
         <f>D11+E11</f>
         <v>0.96680738753759932</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <f>F11/SUM(F$11,F$12,F$13,F$14)</f>
         <v>0.4336590797348947</v>
       </c>
@@ -1205,18 +1199,18 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <f>B12*B$10</f>
+        <f t="shared" si="0"/>
         <v>0.33763562428809185</v>
       </c>
       <c r="E12">
-        <f>C12*C$10</f>
+        <f t="shared" si="0"/>
         <v>0.45805658620005191</v>
       </c>
       <c r="F12">
-        <f t="shared" ref="F12:F14" si="0">D12+E12</f>
+        <f t="shared" ref="F12:F14" si="1">D12+E12</f>
         <v>0.79569221048814376</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <f>F12/SUM(F$11,F$12,F$13,F$14)</f>
         <v>0.35690578723375049</v>
       </c>
@@ -1242,18 +1236,18 @@
         <v>0.44794499999999998</v>
       </c>
       <c r="D13">
-        <f>B13*B$10</f>
+        <f t="shared" si="0"/>
         <v>0.15274458340586014</v>
       </c>
       <c r="E13">
-        <f>C13*C$10</f>
+        <f t="shared" si="0"/>
         <v>0.20518415750538224</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35792874091124238</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <f>F13/SUM(F$11,F$12,F$13,F$14)</f>
         <v>0.16054805786038995</v>
       </c>
@@ -1279,18 +1273,18 @@
         <v>8.5206000000000004E-2</v>
       </c>
       <c r="D14">
-        <f>B14*B$10</f>
+        <f t="shared" si="0"/>
         <v>6.9960559174262901E-2</v>
       </c>
       <c r="E14">
-        <f>C14*C$10</f>
+        <f t="shared" si="0"/>
         <v>3.9029169483761623E-2</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.10898972865802453</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="8">
         <f>F14/SUM(F$11,F$12,F$13,F$14)</f>
         <v>4.888707517096489E-2</v>
       </c>
@@ -1309,10 +1303,10 @@
       <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M15" s="5">
+      <c r="M15" s="2">
         <v>0.58989999999999998</v>
       </c>
       <c r="N15" s="4">
@@ -1330,16 +1324,16 @@
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M16" s="5">
+      <c r="M16" s="2">
         <v>0.83386000000000005</v>
       </c>
       <c r="N16" s="4">
@@ -1351,13 +1345,13 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B17" s="2">
         <v>1</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>0.43365900000000002</v>
       </c>
       <c r="D17" s="2">
@@ -1375,13 +1369,13 @@
       <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2">
         <v>0.82301000000000002</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>0.356906</v>
       </c>
       <c r="D18" s="2">
@@ -1389,13 +1383,13 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="2">
         <v>0.37021799999999999</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="7">
         <v>0.160548</v>
       </c>
       <c r="D19" s="2">
@@ -1403,30 +1397,29 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="2">
         <v>0.112732</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>4.8887E-2</v>
       </c>
       <c r="D20" s="2">
         <v>0.10899</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:15" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="5" t="s">
         <v>50</v>
       </c>
       <c r="L23" t="s">
@@ -1496,13 +1489,13 @@
       <c r="I25" s="2">
         <v>0.35002800000000001</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="11" t="s">
         <v>35</v>
       </c>
       <c r="M25" s="2">
         <v>0.51995000000000002</v>
       </c>
-      <c r="N25" s="13">
+      <c r="N25" s="11">
         <v>0.51995499999999995</v>
       </c>
       <c r="O25" s="3">
@@ -1607,13 +1600,13 @@
       <c r="I28" s="2">
         <v>5.8243999999999997E-2</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="11" t="s">
         <v>38</v>
       </c>
       <c r="M28" s="2">
         <v>0.32621</v>
       </c>
-      <c r="N28" s="13">
+      <c r="N28" s="11">
         <v>0.326206</v>
       </c>
       <c r="O28" s="3">
@@ -1634,13 +1627,13 @@
       <c r="O29" s="2"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1659,7 +1652,7 @@
       <c r="F31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="12" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1674,18 +1667,18 @@
         <v>1</v>
       </c>
       <c r="D32" s="2">
-        <f>B32*B$31</f>
+        <f t="shared" ref="D32:E35" si="2">B32*B$31</f>
         <v>0.61448707751834464</v>
       </c>
       <c r="E32" s="2">
-        <f>C32*C$31</f>
+        <f t="shared" si="2"/>
         <v>0.38551292248165542</v>
       </c>
       <c r="F32" s="2">
         <f>D32+E32</f>
         <v>1</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="12">
         <f>F32/SUM(F$32,F$33,F$34,F$35)</f>
         <v>0.47250853882401217</v>
       </c>
@@ -1701,19 +1694,19 @@
         <v>0.52070399999999994</v>
       </c>
       <c r="D33" s="2">
-        <f>B33*B$31</f>
+        <f t="shared" si="2"/>
         <v>0.41387671029508571</v>
       </c>
       <c r="E33" s="2">
-        <f>C33*C$31</f>
+        <f t="shared" si="2"/>
         <v>0.20073812078788789</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" ref="F33:F35" si="1">D33+E33</f>
+        <f t="shared" ref="F33:F35" si="3">D33+E33</f>
         <v>0.61461483108297355</v>
       </c>
-      <c r="G33" s="15">
-        <f t="shared" ref="G33:G35" si="2">F33/SUM(F$32,F$33,F$34,F$35)</f>
+      <c r="G33" s="12">
+        <f t="shared" ref="G33:G35" si="4">F33/SUM(F$32,F$33,F$34,F$35)</f>
         <v>0.29041075577458292</v>
       </c>
     </row>
@@ -1728,19 +1721,19 @@
         <v>0.28845399999999999</v>
       </c>
       <c r="D34" s="2">
-        <f>B34*B$31</f>
+        <f t="shared" si="2"/>
         <v>0.2096199767538329</v>
       </c>
       <c r="E34" s="2">
-        <f>C34*C$31</f>
+        <f t="shared" si="2"/>
         <v>0.11120274454152343</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.32082272129535633</v>
       </c>
-      <c r="G34" s="15">
-        <f t="shared" si="2"/>
+      <c r="G34" s="12">
+        <f t="shared" si="4"/>
         <v>0.15159147526081213</v>
       </c>
     </row>
@@ -1755,24 +1748,24 @@
         <v>0.16639799999999999</v>
       </c>
       <c r="D35" s="2">
-        <f>B35*B$31</f>
+        <f t="shared" si="2"/>
         <v>0.11677773869866373</v>
       </c>
       <c r="E35" s="2">
-        <f>C35*C$31</f>
+        <f t="shared" si="2"/>
         <v>6.4148579275102494E-2</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.18092631797376624</v>
       </c>
-      <c r="G35" s="15">
-        <f t="shared" si="2"/>
+      <c r="G35" s="12">
+        <f t="shared" si="4"/>
         <v>8.5489230140592898E-2</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1783,7 +1776,7 @@
       <c r="B37" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -1791,13 +1784,13 @@
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
       </c>
-      <c r="C38" s="15">
+      <c r="C38" s="12">
         <v>0.47250900000000001</v>
       </c>
       <c r="D38" s="2">
@@ -1805,13 +1798,13 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B39" s="2">
         <v>0.61461500000000002</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="12">
         <v>0.29041099999999997</v>
       </c>
       <c r="D39" s="2">
@@ -1819,13 +1812,13 @@
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="2">
         <v>0.32082300000000002</v>
       </c>
-      <c r="C40" s="15">
+      <c r="C40" s="12">
         <v>0.151591</v>
       </c>
       <c r="D40" s="2">
@@ -1833,32 +1826,32 @@
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B41" s="2">
         <v>0.180926</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="12">
         <v>8.5488999999999996E-2</v>
       </c>
       <c r="D41" s="2">
         <v>0.180926</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="20" t="s">
+    <row r="43" spans="1:20" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="K44" s="6" t="s">
+      <c r="K44" s="5" t="s">
         <v>53</v>
       </c>
       <c r="Q44" t="s">
@@ -2048,13 +2041,13 @@
       <c r="N48" s="2">
         <v>0.15810299999999999</v>
       </c>
-      <c r="Q48" s="22" t="s">
+      <c r="Q48" s="19" t="s">
         <v>12</v>
       </c>
       <c r="R48" s="2">
         <v>0.68703999999999998</v>
       </c>
-      <c r="S48" s="22">
+      <c r="S48" s="19">
         <v>0.52327299999999999</v>
       </c>
       <c r="T48" s="3">
@@ -2099,13 +2092,13 @@
       <c r="N49" s="2">
         <v>9.1937000000000005E-2</v>
       </c>
-      <c r="Q49" s="22" t="s">
+      <c r="Q49" s="19" t="s">
         <v>43</v>
       </c>
       <c r="R49" s="2">
         <v>0.46087</v>
       </c>
-      <c r="S49" s="22">
+      <c r="S49" s="19">
         <v>0.08</v>
       </c>
       <c r="T49" s="3">
@@ -2114,13 +2107,13 @@
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="Q50" s="22" t="s">
+      <c r="Q50" s="19" t="s">
         <v>44</v>
       </c>
       <c r="R50" s="2">
         <v>0.53913</v>
       </c>
-      <c r="S50" s="22">
+      <c r="S50" s="19">
         <v>9.3584000000000001E-2</v>
       </c>
       <c r="T50" s="3">
@@ -2129,16 +2122,16 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F51" s="23" t="s">
+      <c r="F51" s="17" t="s">
         <v>54</v>
       </c>
       <c r="K51" s="2" t="s">
@@ -2168,7 +2161,7 @@
       <c r="E52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F52" s="22" t="s">
+      <c r="F52" s="19" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="2"/>
@@ -2184,7 +2177,7 @@
       <c r="T52" s="2"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A53" s="24" t="s">
+      <c r="A53" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B53" s="3">
@@ -2200,7 +2193,7 @@
         <f>B53*B$52+C53*C$52+D53*D$52</f>
         <v>0.38617919075793172</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F53" s="19">
         <f>E53/SUM(E$53,E$54,E$55,E$56)</f>
         <v>0.18531138119238386</v>
       </c>
@@ -2217,7 +2210,7 @@
       <c r="T53" s="2"/>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A54" s="24" t="s">
+      <c r="A54" s="20" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="3">
@@ -2233,14 +2226,14 @@
         <f>B54*B$52+C54*C$52+D54*D$52</f>
         <v>0.39255173815144284</v>
       </c>
-      <c r="F54" s="22">
-        <f t="shared" ref="F54:F56" si="3">E54/SUM(E$53,E$54,E$55,E$56)</f>
+      <c r="F54" s="19">
+        <f t="shared" ref="F54:F56" si="5">E54/SUM(E$53,E$54,E$55,E$56)</f>
         <v>0.18836930245657155</v>
       </c>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B55" s="3">
@@ -2253,17 +2246,17 @@
         <v>0.33181100000000002</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" ref="E54:E56" si="4">B55*B$52+C55*C$52+D55*D$52</f>
+        <f t="shared" ref="E55:E56" si="6">B55*B$52+C55*C$52+D55*D$52</f>
         <v>0.51150595167014179</v>
       </c>
-      <c r="F55" s="22">
-        <f t="shared" si="3"/>
+      <c r="F55" s="19">
+        <f t="shared" si="5"/>
         <v>0.24545049723182649</v>
       </c>
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B56" s="3">
@@ -2276,17 +2269,17 @@
         <v>0.19294800000000001</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.79371062589885732</v>
       </c>
-      <c r="F56" s="22">
-        <f t="shared" si="3"/>
+      <c r="F56" s="19">
+        <f t="shared" si="5"/>
         <v>0.3808688191192181</v>
       </c>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="C57" s="23" t="s">
+      <c r="C57" s="17" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2297,7 +2290,7 @@
       <c r="B58" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -2305,13 +2298,13 @@
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B59" s="2">
         <v>0.48654900000000001</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="19">
         <v>0.185311</v>
       </c>
       <c r="D59" s="2">
@@ -2319,13 +2312,13 @@
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B60" s="2">
         <v>0.49457800000000002</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="19">
         <v>0.18836900000000001</v>
       </c>
       <c r="D60" s="2">
@@ -2333,13 +2326,13 @@
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B61" s="2">
         <v>0.64444900000000005</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61" s="19">
         <v>0.245451</v>
       </c>
       <c r="D61" s="2">
@@ -2347,29 +2340,29 @@
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B62" s="2">
         <v>1</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="19">
         <v>0.38086900000000001</v>
       </c>
       <c r="D62" s="2">
         <v>0.79371100000000006</v>
       </c>
     </row>
-    <row r="64" spans="1:20" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="27" t="s">
+    <row r="64" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="5" t="s">
         <v>64</v>
       </c>
       <c r="K65" t="s">
@@ -2439,13 +2432,13 @@
       <c r="I67" s="2">
         <v>0.21038699999999999</v>
       </c>
-      <c r="K67" s="29" t="s">
+      <c r="K67" s="25" t="s">
         <v>56</v>
       </c>
       <c r="L67" s="2">
         <v>0.26762999999999998</v>
       </c>
-      <c r="M67" s="30">
+      <c r="M67" s="26">
         <v>0.26763300000000001</v>
       </c>
       <c r="N67" s="3">
@@ -2550,13 +2543,13 @@
       <c r="I70" s="2">
         <v>5.5076E-2</v>
       </c>
-      <c r="K70" s="29" t="s">
+      <c r="K70" s="25" t="s">
         <v>59</v>
       </c>
       <c r="L70" s="2">
         <v>0.43021999999999999</v>
       </c>
-      <c r="M70" s="30">
+      <c r="M70" s="26">
         <v>0.43021599999999999</v>
       </c>
       <c r="N70" s="3">
@@ -2583,7 +2576,7 @@
       <c r="C72" t="s">
         <v>59</v>
       </c>
-      <c r="E72" s="31" t="s">
+      <c r="E72" s="23" t="s">
         <v>65</v>
       </c>
       <c r="K72" s="2" t="s">
@@ -2610,7 +2603,7 @@
       <c r="D73" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="30" t="s">
+      <c r="E73" s="26" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2628,7 +2621,7 @@
         <f>B74*B$73+C74*C$73</f>
         <v>1</v>
       </c>
-      <c r="E74" s="30">
+      <c r="E74" s="26">
         <f>D74/SUM(D$74,D$75,D$76,D$77)</f>
         <v>0.42986728054867684</v>
       </c>
@@ -2647,7 +2640,7 @@
         <f>B75*B$73+C75*C$73</f>
         <v>0.64833505927213486</v>
       </c>
-      <c r="E75" s="30">
+      <c r="E75" s="26">
         <f>D75/SUM(D$74,D$75,D$76,D$77)</f>
         <v>0.27869802881367783</v>
       </c>
@@ -2666,7 +2659,7 @@
         <f>B76*B$73+C76*C$73</f>
         <v>0.40063333274390306</v>
       </c>
-      <c r="E76" s="30">
+      <c r="E76" s="26">
         <f>D76/SUM(D$74,D$75,D$76,D$77)</f>
         <v>0.17221916124377479</v>
       </c>
@@ -2685,13 +2678,13 @@
         <f>B77*B$73+C77*C$73</f>
         <v>0.27733101538155103</v>
       </c>
-      <c r="E77" s="30">
+      <c r="E77" s="26">
         <f>D77/SUM(D$74,D$75,D$76,D$77)</f>
         <v>0.11921552939387062</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="23" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2702,7 +2695,7 @@
       <c r="B79" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C79" s="30" t="s">
+      <c r="C79" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -2710,13 +2703,13 @@
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B80" s="2">
         <v>1</v>
       </c>
-      <c r="C80" s="30">
+      <c r="C80" s="26">
         <v>0.429867</v>
       </c>
       <c r="D80" s="2">
@@ -2730,7 +2723,7 @@
       <c r="B81" s="2">
         <v>0.64833499999999999</v>
       </c>
-      <c r="C81" s="30">
+      <c r="C81" s="26">
         <v>0.278698</v>
       </c>
       <c r="D81" s="2">
@@ -2744,7 +2737,7 @@
       <c r="B82" s="2">
         <v>0.40063399999999999</v>
       </c>
-      <c r="C82" s="30">
+      <c r="C82" s="26">
         <v>0.17221900000000001</v>
       </c>
       <c r="D82" s="2">
@@ -2758,56 +2751,56 @@
       <c r="B83" s="2">
         <v>0.27733099999999999</v>
       </c>
-      <c r="C83" s="30">
+      <c r="C83" s="26">
         <v>0.119215</v>
       </c>
       <c r="D83" s="2">
         <v>0.27733099999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:17" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="32" t="s">
+    <row r="85" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="27" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A86" s="14" t="s">
-        <v>67</v>
-      </c>
       <c r="H86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I86" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J86" t="s">
-        <v>69</v>
-      </c>
-      <c r="K86" s="6">
+        <v>68</v>
+      </c>
+      <c r="K86" s="5">
         <v>0.156</v>
       </c>
-      <c r="L86" s="6">
+      <c r="L86" s="5">
         <v>0.29249999999999998</v>
       </c>
-      <c r="M86" s="6">
+      <c r="M86" s="5">
         <v>0.20150000000000001</v>
       </c>
-      <c r="N86" s="6">
+      <c r="N86" s="5">
         <v>8.0399999999999999E-2</v>
       </c>
-      <c r="O86" s="6">
+      <c r="O86" s="5">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="P86" s="6">
+      <c r="P86" s="5">
         <v>0.13800000000000001</v>
       </c>
-      <c r="Q86" s="6">
+      <c r="Q86" s="5">
         <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A87" s="37" t="s">
-        <v>102</v>
+      <c r="A87" s="31" t="s">
+        <v>101</v>
       </c>
       <c r="B87" t="s">
         <v>27</v>
@@ -2822,67 +2815,67 @@
         <v>65</v>
       </c>
       <c r="G87" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H87" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="J87" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="J87" s="39" t="s">
+      <c r="K87" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="L87" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="M87" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="M87" s="3" t="s">
+      <c r="N87" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="N87" s="3" t="s">
+      <c r="O87" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="O87" s="3" t="s">
+      <c r="P87" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P87" s="3" t="s">
+      <c r="Q87" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="Q87" s="3" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B88" s="9">
+      <c r="B88" s="7">
         <v>0.43365900000000002</v>
       </c>
-      <c r="C88" s="15">
+      <c r="C88" s="12">
         <v>0.47250900000000001</v>
       </c>
-      <c r="D88" s="22">
+      <c r="D88" s="19">
         <f>C88/SUM(C$53,C$54,C$55,C$56)</f>
         <v>0.24591988941362364</v>
       </c>
-      <c r="E88" s="30">
+      <c r="E88" s="26">
         <f>D88/SUM(D$74,D$75,D$76,D$77)</f>
         <v>0.10571291409506574</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I88" s="2">
         <v>0.446772</v>
       </c>
-      <c r="J88" s="39">
+      <c r="J88" s="33">
         <v>0.26447599999999999</v>
       </c>
       <c r="K88" s="2">
@@ -2911,30 +2904,30 @@
       <c r="A89" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B89" s="9">
+      <c r="B89" s="7">
         <v>0.356906</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="12">
         <v>0.29041099999999997</v>
       </c>
-      <c r="D89" s="22">
-        <f t="shared" ref="D89:D91" si="5">C89/SUM(C$53,C$54,C$55,C$56)</f>
+      <c r="D89" s="19">
+        <f t="shared" ref="D89:D91" si="7">C89/SUM(C$53,C$54,C$55,C$56)</f>
         <v>0.15114599087953848</v>
       </c>
-      <c r="E89" s="30">
+      <c r="E89" s="26">
         <f>D89/SUM(D$74,D$75,D$76,D$77)</f>
         <v>6.4972716065222327E-2</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I89" s="2">
         <v>0.31167600000000001</v>
       </c>
-      <c r="J89" s="39">
+      <c r="J89" s="33">
         <v>0.184503</v>
       </c>
       <c r="K89" s="2">
@@ -2963,30 +2956,30 @@
       <c r="A90" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B90" s="9">
+      <c r="B90" s="7">
         <v>0.160548</v>
       </c>
-      <c r="C90" s="15">
+      <c r="C90" s="12">
         <v>0.151591</v>
       </c>
-      <c r="D90" s="22">
-        <f t="shared" si="5"/>
+      <c r="D90" s="19">
+        <f t="shared" si="7"/>
         <v>7.8896363785876292E-2</v>
       </c>
-      <c r="E90" s="30">
+      <c r="E90" s="26">
         <f>D90/SUM(D$74,D$75,D$76,D$77)</f>
         <v>3.3914965345813751E-2</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I90" s="2">
         <v>0.61306400000000005</v>
       </c>
-      <c r="J90" s="39">
+      <c r="J90" s="33">
         <v>0.36291699999999999</v>
       </c>
       <c r="K90" s="2">
@@ -3015,30 +3008,30 @@
       <c r="A91" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="9">
+      <c r="B91" s="7">
         <v>4.8887E-2</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="12">
         <v>8.5488999999999996E-2</v>
       </c>
-      <c r="D91" s="22">
-        <f t="shared" si="5"/>
+      <c r="D91" s="19">
+        <f t="shared" si="7"/>
         <v>4.4493216903977006E-2</v>
       </c>
-      <c r="E91" s="30">
+      <c r="E91" s="26">
         <f>D91/SUM(D$74,D$75,D$76,D$77)</f>
         <v>1.9126178153375015E-2</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I91" s="2">
         <v>0.31775799999999998</v>
       </c>
-      <c r="J91" s="39">
+      <c r="J91" s="33">
         <v>0.18810399999999999</v>
       </c>
       <c r="K91" s="2">
@@ -3065,19 +3058,19 @@
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" t="s">
         <v>91</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>92</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>93</v>
       </c>
-      <c r="E93" t="s">
-        <v>94</v>
-      </c>
-      <c r="H93" t="s">
-        <v>89</v>
+      <c r="H93" s="31" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
@@ -3101,7 +3094,7 @@
         <v>1.9885021992938245E-2</v>
       </c>
       <c r="H94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>0</v>
@@ -3116,7 +3109,7 @@
         <v>3</v>
       </c>
       <c r="M94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N94" s="2" t="s">
         <v>0</v>
@@ -3140,15 +3133,15 @@
         <v>9.4393071255999994E-2</v>
       </c>
       <c r="C95" s="2">
-        <f t="shared" ref="C95:C97" si="6">C89*J$89</f>
+        <f t="shared" ref="C95:C97" si="8">C89*J$89</f>
         <v>5.3581700732999997E-2</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" ref="D95:D97" si="7">D89*J$90</f>
+        <f t="shared" ref="D95:D97" si="9">D89*J$90</f>
         <v>5.4853449572029464E-2</v>
       </c>
       <c r="E95" s="2">
-        <f t="shared" ref="E95:E97" si="8">E89*J$91</f>
+        <f t="shared" ref="E95:E97" si="10">E89*J$91</f>
         <v>1.2221627782732581E-2</v>
       </c>
       <c r="I95" s="2" t="s">
@@ -3157,7 +3150,7 @@
       <c r="J95" s="2">
         <v>1</v>
       </c>
-      <c r="K95" s="39">
+      <c r="K95" s="33">
         <v>0.49330400000000002</v>
       </c>
       <c r="L95" s="2">
@@ -3169,7 +3162,7 @@
       <c r="O95" s="2">
         <v>0.40266999999999997</v>
       </c>
-      <c r="P95" s="39">
+      <c r="P95" s="33">
         <v>0.201155</v>
       </c>
       <c r="Q95" s="2">
@@ -3181,19 +3174,19 @@
         <v>6</v>
       </c>
       <c r="B96" s="2">
-        <f t="shared" ref="B95:B97" si="9">B90*J$88</f>
+        <f t="shared" ref="B96:B97" si="11">B90*J$88</f>
         <v>4.2461092847999996E-2</v>
       </c>
       <c r="C96" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.7968994273000002E-2</v>
       </c>
       <c r="D96" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.8632831656078866E-2</v>
       </c>
       <c r="E96" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>6.3795406414089498E-3</v>
       </c>
       <c r="I96" s="2" t="s">
@@ -3202,7 +3195,7 @@
       <c r="J96" s="2">
         <v>0.76753899999999997</v>
       </c>
-      <c r="K96" s="39">
+      <c r="K96" s="33">
         <v>0.37863000000000002</v>
       </c>
       <c r="L96" s="2">
@@ -3214,7 +3207,7 @@
       <c r="O96" s="2">
         <v>0.21374099999999999</v>
       </c>
-      <c r="P96" s="39">
+      <c r="P96" s="33">
         <v>0.10677499999999999</v>
       </c>
       <c r="Q96" s="2">
@@ -3226,19 +3219,19 @@
         <v>7</v>
       </c>
       <c r="B97" s="2">
+        <f t="shared" si="11"/>
+        <v>1.2929438211999999E-2</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" si="8"/>
+        <v>1.5772976966999998E-2</v>
+      </c>
+      <c r="D97" s="2">
         <f t="shared" si="9"/>
-        <v>1.2929438211999999E-2</v>
-      </c>
-      <c r="C97" s="2">
-        <f t="shared" si="6"/>
-        <v>1.5772976966999998E-2</v>
-      </c>
-      <c r="D97" s="2">
-        <f t="shared" si="7"/>
         <v>1.6147344799140623E-2</v>
       </c>
       <c r="E97" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.5977106153624538E-3</v>
       </c>
       <c r="I97" s="2" t="s">
@@ -3247,7 +3240,7 @@
       <c r="J97" s="2">
         <v>0.223827</v>
       </c>
-      <c r="K97" s="39">
+      <c r="K97" s="33">
         <v>0.110415</v>
       </c>
       <c r="L97" s="2">
@@ -3259,7 +3252,7 @@
       <c r="O97" s="2">
         <v>-0.38537399999999999</v>
       </c>
-      <c r="P97" s="39">
+      <c r="P97" s="33">
         <v>-0.19251499999999999</v>
       </c>
       <c r="Q97" s="2">
@@ -3273,7 +3266,7 @@
       <c r="J98" s="2">
         <v>3.5783000000000002E-2</v>
       </c>
-      <c r="K98" s="39">
+      <c r="K98" s="33">
         <v>1.7652000000000001E-2</v>
       </c>
       <c r="L98" s="2">
@@ -3285,7 +3278,7 @@
       <c r="O98" s="2">
         <v>-1</v>
       </c>
-      <c r="P98" s="39">
+      <c r="P98" s="33">
         <v>-0.499554</v>
       </c>
       <c r="Q98" s="2">
@@ -3293,17 +3286,17 @@
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A99" s="34" t="s">
+      <c r="A99" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="C99" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E99" t="s">
         <v>26</v>
@@ -3317,7 +3310,7 @@
         <f>(B88*C88)/(D88*E88)</f>
         <v>7.882005786887035</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="5">
         <f>B100/SUM(B$100,B$101,B$102,B$103)</f>
         <v>0.24294749874824537</v>
       </c>
@@ -3325,7 +3318,7 @@
         <f>B94+C94-D94-E94</f>
         <v>9.2738195211737692E-2</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="5">
         <f>D100/SUM(D$100,D$101,D$102,D$103)</f>
         <v>0.42537926793715619</v>
       </c>
@@ -3335,19 +3328,19 @@
         <v>5</v>
       </c>
       <c r="B101" s="2">
-        <f t="shared" ref="B101:B103" si="10">(B89*C89)/(D89*E89)</f>
+        <f t="shared" ref="B101:B103" si="12">(B89*C89)/(D89*E89)</f>
         <v>10.554538712459065</v>
       </c>
-      <c r="C101" s="6">
-        <f t="shared" ref="C101:C103" si="11">B101/SUM(B$100,B$101,B$102,B$103)</f>
+      <c r="C101" s="5">
+        <f t="shared" ref="C101:C103" si="13">B101/SUM(B$100,B$101,B$102,B$103)</f>
         <v>0.32532312839701372</v>
       </c>
       <c r="D101" s="2">
         <f>B95+C95-D95-E95</f>
         <v>8.0899694634237948E-2</v>
       </c>
-      <c r="E101" s="6">
-        <f t="shared" ref="E101:E103" si="12">D101/SUM(D$100,D$101,D$102,D$103)</f>
+      <c r="E101" s="5">
+        <f t="shared" ref="E101:E103" si="14">D101/SUM(D$100,D$101,D$102,D$103)</f>
         <v>0.37107744873922272</v>
       </c>
     </row>
@@ -3356,19 +3349,19 @@
         <v>6</v>
       </c>
       <c r="B102" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>9.0955706652395669</v>
       </c>
-      <c r="C102" s="6">
-        <f t="shared" si="11"/>
+      <c r="C102" s="5">
+        <f t="shared" si="13"/>
         <v>0.28035327587352571</v>
       </c>
       <c r="D102" s="2">
         <f>B96+C96-D96-E96</f>
         <v>3.5417714823512171E-2</v>
       </c>
-      <c r="E102" s="6">
-        <f t="shared" si="12"/>
+      <c r="E102" s="5">
+        <f t="shared" si="14"/>
         <v>0.16245692046555704</v>
       </c>
     </row>
@@ -3377,37 +3370,37 @@
         <v>7</v>
       </c>
       <c r="B103" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>4.9111321522133187</v>
       </c>
-      <c r="C103" s="6">
-        <f t="shared" si="11"/>
+      <c r="C103" s="5">
+        <f t="shared" si="13"/>
         <v>0.1513760969812154</v>
       </c>
       <c r="D103" s="2">
         <f>B97+C97-D97-E97</f>
         <v>8.9573597644969204E-3</v>
       </c>
-      <c r="E103" s="6">
-        <f t="shared" si="12"/>
+      <c r="E103" s="5">
+        <f t="shared" si="14"/>
         <v>4.1086362858064107E-2</v>
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A105" s="38" t="s">
-        <v>101</v>
+      <c r="A105" s="32" t="s">
+        <v>100</v>
       </c>
       <c r="B105" t="s">
+        <v>96</v>
+      </c>
+      <c r="C105" t="s">
         <v>97</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>98</v>
       </c>
-      <c r="D105" t="s">
+      <c r="E105" t="s">
         <v>99</v>
-      </c>
-      <c r="E105" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
@@ -3417,13 +3410,13 @@
       <c r="B106" s="4">
         <v>1</v>
       </c>
-      <c r="C106" s="35">
-        <v>1</v>
-      </c>
-      <c r="D106" s="36">
+      <c r="C106" s="29">
+        <v>1</v>
+      </c>
+      <c r="D106" s="30">
         <v>0.48654900000000001</v>
       </c>
-      <c r="E106" s="29">
+      <c r="E106" s="25">
         <v>1</v>
       </c>
     </row>
@@ -3434,13 +3427,13 @@
       <c r="B107" s="4">
         <v>0.82301000000000002</v>
       </c>
-      <c r="C107" s="35">
+      <c r="C107" s="29">
         <v>0.61461500000000002</v>
       </c>
-      <c r="D107" s="36">
+      <c r="D107" s="30">
         <v>0.49457800000000002</v>
       </c>
-      <c r="E107" s="29">
+      <c r="E107" s="25">
         <v>0.64833499999999999</v>
       </c>
     </row>
@@ -3451,13 +3444,13 @@
       <c r="B108" s="4">
         <v>0.37021799999999999</v>
       </c>
-      <c r="C108" s="35">
+      <c r="C108" s="29">
         <v>0.32082300000000002</v>
       </c>
-      <c r="D108" s="36">
+      <c r="D108" s="30">
         <v>0.64444900000000005</v>
       </c>
-      <c r="E108" s="29">
+      <c r="E108" s="25">
         <v>0.40063399999999999</v>
       </c>
     </row>
@@ -3468,28 +3461,28 @@
       <c r="B109" s="4">
         <v>0.112732</v>
       </c>
-      <c r="C109" s="35">
+      <c r="C109" s="29">
         <v>0.180926</v>
       </c>
-      <c r="D109" s="36">
-        <v>1</v>
-      </c>
-      <c r="E109" s="29">
+      <c r="D109" s="30">
+        <v>1</v>
+      </c>
+      <c r="E109" s="25">
         <v>0.27733099999999999</v>
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
+        <v>90</v>
+      </c>
+      <c r="C111" t="s">
         <v>91</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>92</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>93</v>
-      </c>
-      <c r="E111" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
@@ -3551,7 +3544,7 @@
         <v>0.23388149773300002</v>
       </c>
       <c r="E114" s="2">
-        <f t="shared" ref="E113:E115" si="13">E108*J$91</f>
+        <f t="shared" ref="E114:E115" si="15">E108*J$91</f>
         <v>7.5360857935999989E-2</v>
       </c>
     </row>
@@ -3572,22 +3565,22 @@
         <v>0.36291699999999999</v>
       </c>
       <c r="E115" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>5.2167070423999998E-2</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="34" t="s">
-        <v>103</v>
+      <c r="A117" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C117" t="s">
         <v>26</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E117" t="s">
         <v>26</v>
@@ -3601,7 +3594,7 @@
         <f>(B106*C106)/(D106*E106)</f>
         <v>2.0552914506041531</v>
       </c>
-      <c r="C118" s="40">
+      <c r="C118" s="34">
         <f>B118/SUM(B$118,B$119,B$120,B$121)</f>
         <v>0.4933035001896105</v>
       </c>
@@ -3609,7 +3602,7 @@
         <f>B112+C112-D112-E112</f>
         <v>8.4298096566999992E-2</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="5">
         <f>D118/SUM(D$118,D$119,ABS(D$120),ABS(D$121))</f>
         <v>0.13641767185546486</v>
       </c>
@@ -3619,19 +3612,19 @@
         <v>5</v>
       </c>
       <c r="B119" s="2">
-        <f t="shared" ref="B119:B121" si="14">(B107*C107)/(D107*E107)</f>
+        <f t="shared" ref="B119:B121" si="16">(B107*C107)/(D107*E107)</f>
         <v>1.5775168471110115</v>
       </c>
-      <c r="C119" s="40">
-        <f t="shared" ref="C119:C121" si="15">B119/SUM(B$118,B$119,B$120,B$121)</f>
+      <c r="C119" s="34">
+        <f t="shared" ref="C119:C121" si="17">B119/SUM(B$118,B$119,B$120,B$121)</f>
         <v>0.37862979581761519</v>
       </c>
       <c r="D119" s="2">
         <f>B113+C113-D113-E113</f>
         <v>2.961953323899999E-2</v>
       </c>
-      <c r="E119" s="6">
-        <f t="shared" ref="E119:E121" si="16">D119/SUM(D$118,D$119,ABS(D$120),ABS(D$121))</f>
+      <c r="E119" s="5">
+        <f t="shared" ref="E119:E121" si="18">D119/SUM(D$118,D$119,ABS(D$120),ABS(D$121))</f>
         <v>4.7932609755885175E-2</v>
       </c>
     </row>
@@ -3640,19 +3633,19 @@
         <v>6</v>
       </c>
       <c r="B120" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.46003054480503192</v>
       </c>
-      <c r="C120" s="40">
-        <f t="shared" si="15"/>
+      <c r="C120" s="34">
+        <f t="shared" si="17"/>
         <v>0.11041484062017005</v>
       </c>
       <c r="D120" s="2">
         <f>B114+C114-D114-E114</f>
         <v>-0.15213577393200001</v>
       </c>
-      <c r="E120" s="6">
-        <f t="shared" si="16"/>
+      <c r="E120" s="5">
+        <f t="shared" si="18"/>
         <v>-0.24619782570342508</v>
       </c>
     </row>
@@ -3661,37 +3654,37 @@
         <v>7</v>
       </c>
       <c r="B121" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>7.3544428253603092E-2</v>
       </c>
-      <c r="C121" s="40">
-        <f t="shared" si="15"/>
+      <c r="C121" s="34">
+        <f t="shared" si="17"/>
         <v>1.7651863372604243E-2</v>
       </c>
       <c r="D121" s="2">
-        <f t="shared" ref="D121" si="17">B115+C115-D115-E115</f>
+        <f t="shared" ref="D121" si="19">B115+C115-D115-E115</f>
         <v>-0.35188777221399997</v>
       </c>
-      <c r="E121" s="6">
-        <f t="shared" si="16"/>
+      <c r="E121" s="5">
+        <f t="shared" si="18"/>
         <v>-0.56945189268522489</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" t="s">
         <v>104</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>105</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>106</v>
       </c>
-      <c r="D125" t="s">
-        <v>107</v>
-      </c>
       <c r="E125" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -3701,13 +3694,13 @@
       <c r="B126" s="4">
         <v>0.96680699999999997</v>
       </c>
-      <c r="C126" s="33">
-        <v>1</v>
-      </c>
-      <c r="D126" s="36">
+      <c r="C126" s="28">
+        <v>1</v>
+      </c>
+      <c r="D126" s="30">
         <v>0.38617899999999999</v>
       </c>
-      <c r="E126" s="29">
+      <c r="E126" s="25">
         <v>1</v>
       </c>
     </row>
@@ -3718,13 +3711,13 @@
       <c r="B127" s="4">
         <v>0.79569199999999995</v>
       </c>
-      <c r="C127" s="33">
+      <c r="C127" s="28">
         <v>0.61461500000000002</v>
       </c>
-      <c r="D127" s="36">
+      <c r="D127" s="30">
         <v>0.39255200000000001</v>
       </c>
-      <c r="E127" s="29">
+      <c r="E127" s="25">
         <v>0.64833499999999999</v>
       </c>
     </row>
@@ -3735,13 +3728,13 @@
       <c r="B128" s="4">
         <v>0.357929</v>
       </c>
-      <c r="C128" s="33">
+      <c r="C128" s="28">
         <v>0.32082300000000002</v>
       </c>
-      <c r="D128" s="36">
+      <c r="D128" s="30">
         <v>0.51150600000000002</v>
       </c>
-      <c r="E128" s="29">
+      <c r="E128" s="25">
         <v>0.40063399999999999</v>
       </c>
     </row>
@@ -3752,28 +3745,28 @@
       <c r="B129" s="4">
         <v>0.10899</v>
       </c>
-      <c r="C129" s="33">
+      <c r="C129" s="28">
         <v>0.180926</v>
       </c>
-      <c r="D129" s="36">
+      <c r="D129" s="30">
         <v>0.79371100000000006</v>
       </c>
-      <c r="E129" s="29">
+      <c r="E129" s="25">
         <v>0.27733099999999999</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B131" t="s">
+        <v>90</v>
+      </c>
+      <c r="C131" t="s">
         <v>91</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>92</v>
       </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
         <v>93</v>
-      </c>
-      <c r="E131" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -3835,7 +3828,7 @@
         <v>0.185634223002</v>
       </c>
       <c r="E134" s="2">
-        <f t="shared" ref="E134:E135" si="18">E128*J$91</f>
+        <f t="shared" ref="E134:E135" si="20">E128*J$91</f>
         <v>7.5360857935999989E-2</v>
       </c>
     </row>
@@ -3856,22 +3849,22 @@
         <v>0.28805121498700004</v>
       </c>
       <c r="E135" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>5.2167070423999998E-2</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="34" t="s">
-        <v>103</v>
+      <c r="A137" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C137" t="s">
         <v>26</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E137" t="s">
         <v>26</v>
@@ -3885,7 +3878,7 @@
         <f>(B126*C126)/(D126*E126)</f>
         <v>2.5035203882137558</v>
       </c>
-      <c r="C138" s="40">
+      <c r="C138" s="34">
         <f>B138/SUM(B$138,B$139,B$140,B$141)</f>
         <v>0.49330368350169584</v>
       </c>
@@ -3893,7 +3886,7 @@
         <f>B132+C132-D132-E132</f>
         <v>0.11194532398899998</v>
       </c>
-      <c r="E138" s="40">
+      <c r="E138" s="34">
         <f>D138/SUM(D$138,D$139,ABS(D$140),ABS(D$141))</f>
         <v>0.20115340450987565</v>
       </c>
@@ -3903,18 +3896,18 @@
         <v>5</v>
       </c>
       <c r="B139" s="2">
-        <f t="shared" ref="B139:B141" si="19">(B127*C127)/(D127*E127)</f>
+        <f t="shared" ref="B139:B141" si="21">(B127*C127)/(D127*E127)</f>
         <v>1.9215490953119025</v>
       </c>
-      <c r="C139" s="40">
-        <f t="shared" ref="C139:C141" si="20">B139/SUM(B$138,B$139,B$140,B$141)</f>
+      <c r="C139" s="34">
+        <f t="shared" ref="C139:C141" si="22">B139/SUM(B$138,B$139,B$140,B$141)</f>
         <v>0.37862972924420157</v>
       </c>
       <c r="D139" s="2">
         <f>B133+C133-D133-E133</f>
         <v>5.9421547712999956E-2</v>
       </c>
-      <c r="E139" s="40">
+      <c r="E139" s="34">
         <f>D139/SUM(D$138,D$139,ABS(D$140),ABS(D$141))</f>
         <v>0.10677396962905278</v>
       </c>
@@ -3924,18 +3917,18 @@
         <v>6</v>
       </c>
       <c r="B140" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>0.56035576856802261</v>
       </c>
-      <c r="C140" s="40">
-        <f t="shared" si="20"/>
+      <c r="C140" s="34">
+        <f t="shared" si="22"/>
         <v>0.11041474477595808</v>
       </c>
       <c r="D140" s="2">
         <f>B134+C134-D134-E134</f>
         <v>-0.107138644765</v>
       </c>
-      <c r="E140" s="40">
+      <c r="E140" s="34">
         <f>D140/SUM(D$138,D$139,ABS(D$140),ABS(D$141))</f>
         <v>-0.19251633191192158</v>
       </c>
@@ -3945,30 +3938,30 @@
         <v>7</v>
       </c>
       <c r="B141" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>8.9583250665956835E-2</v>
       </c>
-      <c r="C141" s="40">
-        <f t="shared" si="20"/>
+      <c r="C141" s="34">
+        <f t="shared" si="22"/>
         <v>1.7651842478144449E-2</v>
       </c>
       <c r="D141" s="2">
         <f>B135+C135-D135-E135</f>
         <v>-0.27801165639300002</v>
       </c>
-      <c r="E141" s="40">
+      <c r="E141" s="34">
         <f>D141/SUM(D$138,D$139,ABS(D$140),ABS(D$141))</f>
         <v>-0.49955629394914985</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C144" s="5" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C144" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
